--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -1092,6 +1092,23 @@
         <v>43950.0</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>8580.0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>16023.0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>888.0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43951.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1603,6 +1606,23 @@
         <v>64</v>
       </c>
     </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>9572</v>
+      </c>
+      <c r="B62" t="n">
+        <v>247</v>
+      </c>
+      <c r="C62" t="n">
+        <v>18435</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1427</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1623,6 +1626,23 @@
         <v>65</v>
       </c>
     </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>10041</v>
+      </c>
+      <c r="B63" t="n">
+        <v>260</v>
+      </c>
+      <c r="C63" t="n">
+        <v>19663</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1228</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1643,6 +1646,23 @@
         <v>66</v>
       </c>
     </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>10415</v>
+      </c>
+      <c r="B64" t="n">
+        <v>270</v>
+      </c>
+      <c r="C64" t="n">
+        <v>20643</v>
+      </c>
+      <c r="D64" t="n">
+        <v>980</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1663,6 +1666,23 @@
         <v>67</v>
       </c>
     </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>10710</v>
+      </c>
+      <c r="B65" t="n">
+        <v>275</v>
+      </c>
+      <c r="C65" t="n">
+        <v>22016</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1317</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1683,6 +1686,23 @@
         <v>68</v>
       </c>
     </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>11189</v>
+      </c>
+      <c r="B66" t="n">
+        <v>281</v>
+      </c>
+      <c r="C66" t="n">
+        <v>23048</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1032</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1703,6 +1706,23 @@
         <v>69</v>
       </c>
     </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>11664</v>
+      </c>
+      <c r="B67" t="n">
+        <v>285</v>
+      </c>
+      <c r="C67" t="n">
+        <v>24581</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1533</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1723,6 +1726,23 @@
         <v>70</v>
       </c>
     </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>12160</v>
+      </c>
+      <c r="B68" t="n">
+        <v>294</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25972</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1391</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,6 +1746,23 @@
         <v>71</v>
       </c>
     </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>12667</v>
+      </c>
+      <c r="B69" t="n">
+        <v>304</v>
+      </c>
+      <c r="C69" t="n">
+        <v>27219</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1247</v>
+      </c>
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1763,6 +1766,23 @@
         <v>72</v>
       </c>
     </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>13112</v>
+      </c>
+      <c r="B70" t="n">
+        <v>312</v>
+      </c>
+      <c r="C70" t="n">
+        <v>28866</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1647</v>
+      </c>
+      <c r="E70" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1783,6 +1786,23 @@
         <v>73</v>
       </c>
     </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>13605</v>
+      </c>
+      <c r="B71" t="n">
+        <v>323</v>
+      </c>
+      <c r="C71" t="n">
+        <v>30063</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
